--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Myl9-Cd69.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Myl9-Cd69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.82991125795097</v>
+        <v>5.093071666666667</v>
       </c>
       <c r="H2">
-        <v>4.82991125795097</v>
+        <v>15.279215</v>
       </c>
       <c r="I2">
-        <v>0.1177723634992034</v>
+        <v>0.1198120613627983</v>
       </c>
       <c r="J2">
-        <v>0.1177723634992034</v>
+        <v>0.1198120613627983</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.67520818719252</v>
+        <v>0.1059273333333333</v>
       </c>
       <c r="N2">
-        <v>6.67520818719252</v>
+        <v>0.317782</v>
       </c>
       <c r="O2">
-        <v>0.3612632918446874</v>
+        <v>0.005178699957631011</v>
       </c>
       <c r="P2">
-        <v>0.3612632918446874</v>
+        <v>0.005178699957631011</v>
       </c>
       <c r="Q2">
-        <v>32.24066317248764</v>
+        <v>0.5394955001255555</v>
       </c>
       <c r="R2">
-        <v>32.24066317248764</v>
+        <v>4.855459501129999</v>
       </c>
       <c r="S2">
-        <v>0.0425468317260513</v>
+        <v>0.0006204707171032076</v>
       </c>
       <c r="T2">
-        <v>0.0425468317260513</v>
+        <v>0.0006204707171032076</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.82991125795097</v>
+        <v>5.093071666666667</v>
       </c>
       <c r="H3">
-        <v>4.82991125795097</v>
+        <v>15.279215</v>
       </c>
       <c r="I3">
-        <v>0.1177723634992034</v>
+        <v>0.1198120613627983</v>
       </c>
       <c r="J3">
-        <v>0.1177723634992034</v>
+        <v>0.1198120613627983</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>11.802196901787</v>
+        <v>0.05518799999999999</v>
       </c>
       <c r="N3">
-        <v>11.802196901787</v>
+        <v>0.165564</v>
       </c>
       <c r="O3">
-        <v>0.6387367081553126</v>
+        <v>0.002698095800848445</v>
       </c>
       <c r="P3">
-        <v>0.6387367081553126</v>
+        <v>0.002698095800848446</v>
       </c>
       <c r="Q3">
-        <v>57.00356368449508</v>
+        <v>0.28107643914</v>
       </c>
       <c r="R3">
-        <v>57.00356368449508</v>
+        <v>2.52968795226</v>
       </c>
       <c r="S3">
-        <v>0.07522553177315204</v>
+        <v>0.0003232644196539623</v>
       </c>
       <c r="T3">
-        <v>0.07522553177315204</v>
+        <v>0.0003232644196539624</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -658,57 +658,57 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.9377611030635</v>
+        <v>5.093071666666667</v>
       </c>
       <c r="H4">
-        <v>25.9377611030635</v>
+        <v>15.279215</v>
       </c>
       <c r="I4">
-        <v>0.6324653323509369</v>
+        <v>0.1198120613627983</v>
       </c>
       <c r="J4">
-        <v>0.6324653323509369</v>
+        <v>0.1198120613627983</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.67520818719252</v>
+        <v>7.495919333333333</v>
       </c>
       <c r="N4">
-        <v>6.67520818719252</v>
+        <v>22.487758</v>
       </c>
       <c r="O4">
-        <v>0.3612632918446874</v>
+        <v>0.3664693135602911</v>
       </c>
       <c r="P4">
-        <v>0.3612632918446874</v>
+        <v>0.3664693135602912</v>
       </c>
       <c r="Q4">
-        <v>173.1399552726132</v>
+        <v>38.17725437221889</v>
       </c>
       <c r="R4">
-        <v>173.1399552726132</v>
+        <v>343.59528934997</v>
       </c>
       <c r="S4">
-        <v>0.2284865079427437</v>
+        <v>0.04390744388386816</v>
       </c>
       <c r="T4">
-        <v>0.2284865079427437</v>
+        <v>0.04390744388386817</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -720,57 +720,57 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.9377611030635</v>
+        <v>5.093071666666667</v>
       </c>
       <c r="H5">
-        <v>25.9377611030635</v>
+        <v>15.279215</v>
       </c>
       <c r="I5">
-        <v>0.6324653323509369</v>
+        <v>0.1198120613627983</v>
       </c>
       <c r="J5">
-        <v>0.6324653323509369</v>
+        <v>0.1198120613627983</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.802196901787</v>
+        <v>12.70442966666666</v>
       </c>
       <c r="N5">
-        <v>11.802196901787</v>
+        <v>38.11328899999999</v>
       </c>
       <c r="O5">
-        <v>0.6387367081553126</v>
+        <v>0.6211090877692206</v>
       </c>
       <c r="P5">
-        <v>0.6387367081553126</v>
+        <v>0.6211090877692207</v>
       </c>
       <c r="Q5">
-        <v>306.1225637298674</v>
+        <v>64.70457077645943</v>
       </c>
       <c r="R5">
-        <v>306.1225637298674</v>
+        <v>582.341136988135</v>
       </c>
       <c r="S5">
-        <v>0.4039788244081932</v>
+        <v>0.07441636013679752</v>
       </c>
       <c r="T5">
-        <v>0.4039788244081932</v>
+        <v>0.07441636013679753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,60 +779,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.2428933986142</v>
+        <v>5.093071666666667</v>
       </c>
       <c r="H6">
-        <v>10.2428933986142</v>
+        <v>15.279215</v>
       </c>
       <c r="I6">
-        <v>0.2497623041498598</v>
+        <v>0.1198120613627983</v>
       </c>
       <c r="J6">
-        <v>0.2497623041498598</v>
+        <v>0.1198120613627983</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>6.67520818719252</v>
+        <v>0.09296133333333334</v>
       </c>
       <c r="N6">
-        <v>6.67520818719252</v>
+        <v>0.278884</v>
       </c>
       <c r="O6">
-        <v>0.3612632918446874</v>
+        <v>0.004544802912008758</v>
       </c>
       <c r="P6">
-        <v>0.3612632918446874</v>
+        <v>0.004544802912008758</v>
       </c>
       <c r="Q6">
-        <v>68.37344587496972</v>
+        <v>0.4734587328955556</v>
       </c>
       <c r="R6">
-        <v>68.37344587496972</v>
+        <v>4.261128596060001</v>
       </c>
       <c r="S6">
-        <v>0.09022995217589236</v>
+        <v>0.0005445222053754177</v>
       </c>
       <c r="T6">
-        <v>0.09022995217589236</v>
+        <v>0.0005445222053754177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -841,55 +841,613 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>26.708345</v>
+      </c>
+      <c r="H7">
+        <v>80.125035</v>
+      </c>
+      <c r="I7">
+        <v>0.6283009703126999</v>
+      </c>
+      <c r="J7">
+        <v>0.6283009703126999</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1059273333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.317782</v>
+      </c>
+      <c r="O7">
+        <v>0.005178699957631011</v>
+      </c>
+      <c r="P7">
+        <v>0.005178699957631011</v>
+      </c>
+      <c r="Q7">
+        <v>2.829143763596666</v>
+      </c>
+      <c r="R7">
+        <v>25.46229387236999</v>
+      </c>
+      <c r="S7">
+        <v>0.003253782208337902</v>
+      </c>
+      <c r="T7">
+        <v>0.003253782208337902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>26.708345</v>
+      </c>
+      <c r="H8">
+        <v>80.125035</v>
+      </c>
+      <c r="I8">
+        <v>0.6283009703126999</v>
+      </c>
+      <c r="J8">
+        <v>0.6283009703126999</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.05518799999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.165564</v>
+      </c>
+      <c r="O8">
+        <v>0.002698095800848445</v>
+      </c>
+      <c r="P8">
+        <v>0.002698095800848446</v>
+      </c>
+      <c r="Q8">
+        <v>1.47398014386</v>
+      </c>
+      <c r="R8">
+        <v>13.26582129474</v>
+      </c>
+      <c r="S8">
+        <v>0.001695216209669699</v>
+      </c>
+      <c r="T8">
+        <v>0.0016952162096697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>26.708345</v>
+      </c>
+      <c r="H9">
+        <v>80.125035</v>
+      </c>
+      <c r="I9">
+        <v>0.6283009703126999</v>
+      </c>
+      <c r="J9">
+        <v>0.6283009703126999</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.495919333333333</v>
+      </c>
+      <c r="N9">
+        <v>22.487758</v>
+      </c>
+      <c r="O9">
+        <v>0.3664693135602911</v>
+      </c>
+      <c r="P9">
+        <v>0.3664693135602912</v>
+      </c>
+      <c r="Q9">
+        <v>200.2035996468366</v>
+      </c>
+      <c r="R9">
+        <v>1801.83239682153</v>
+      </c>
+      <c r="S9">
+        <v>0.23025302529976</v>
+      </c>
+      <c r="T9">
+        <v>0.23025302529976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>10.2428933986142</v>
-      </c>
-      <c r="H7">
-        <v>10.2428933986142</v>
-      </c>
-      <c r="I7">
-        <v>0.2497623041498598</v>
-      </c>
-      <c r="J7">
-        <v>0.2497623041498598</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>11.802196901787</v>
-      </c>
-      <c r="N7">
-        <v>11.802196901787</v>
-      </c>
-      <c r="O7">
-        <v>0.6387367081553126</v>
-      </c>
-      <c r="P7">
-        <v>0.6387367081553126</v>
-      </c>
-      <c r="Q7">
-        <v>120.888644734459</v>
-      </c>
-      <c r="R7">
-        <v>120.888644734459</v>
-      </c>
-      <c r="S7">
-        <v>0.1595323519739674</v>
-      </c>
-      <c r="T7">
-        <v>0.1595323519739674</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>26.708345</v>
+      </c>
+      <c r="H10">
+        <v>80.125035</v>
+      </c>
+      <c r="I10">
+        <v>0.6283009703126999</v>
+      </c>
+      <c r="J10">
+        <v>0.6283009703126999</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.70442966666666</v>
+      </c>
+      <c r="N10">
+        <v>38.11328899999999</v>
+      </c>
+      <c r="O10">
+        <v>0.6211090877692206</v>
+      </c>
+      <c r="P10">
+        <v>0.6211090877692207</v>
+      </c>
+      <c r="Q10">
+        <v>339.3142905655682</v>
+      </c>
+      <c r="R10">
+        <v>3053.828615090114</v>
+      </c>
+      <c r="S10">
+        <v>0.3902434425154372</v>
+      </c>
+      <c r="T10">
+        <v>0.3902434425154372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>26.708345</v>
+      </c>
+      <c r="H11">
+        <v>80.125035</v>
+      </c>
+      <c r="I11">
+        <v>0.6283009703126999</v>
+      </c>
+      <c r="J11">
+        <v>0.6283009703126999</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.09296133333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.278884</v>
+      </c>
+      <c r="O11">
+        <v>0.004544802912008758</v>
+      </c>
+      <c r="P11">
+        <v>0.004544802912008758</v>
+      </c>
+      <c r="Q11">
+        <v>2.482843362326667</v>
+      </c>
+      <c r="R11">
+        <v>22.34559026094</v>
+      </c>
+      <c r="S11">
+        <v>0.002855504079495087</v>
+      </c>
+      <c r="T11">
+        <v>0.002855504079495087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10.70742266666667</v>
+      </c>
+      <c r="H12">
+        <v>32.12226800000001</v>
+      </c>
+      <c r="I12">
+        <v>0.2518869683245017</v>
+      </c>
+      <c r="J12">
+        <v>0.2518869683245018</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1059273333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.317782</v>
+      </c>
+      <c r="O12">
+        <v>0.005178699957631011</v>
+      </c>
+      <c r="P12">
+        <v>0.005178699957631011</v>
+      </c>
+      <c r="Q12">
+        <v>1.134208729952889</v>
+      </c>
+      <c r="R12">
+        <v>10.207878569576</v>
+      </c>
+      <c r="S12">
+        <v>0.001304447032189901</v>
+      </c>
+      <c r="T12">
+        <v>0.001304447032189901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.70742266666667</v>
+      </c>
+      <c r="H13">
+        <v>32.12226800000001</v>
+      </c>
+      <c r="I13">
+        <v>0.2518869683245017</v>
+      </c>
+      <c r="J13">
+        <v>0.2518869683245018</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.05518799999999999</v>
+      </c>
+      <c r="N13">
+        <v>0.165564</v>
+      </c>
+      <c r="O13">
+        <v>0.002698095800848445</v>
+      </c>
+      <c r="P13">
+        <v>0.002698095800848446</v>
+      </c>
+      <c r="Q13">
+        <v>0.590921242128</v>
+      </c>
+      <c r="R13">
+        <v>5.318291179152</v>
+      </c>
+      <c r="S13">
+        <v>0.0006796151715247836</v>
+      </c>
+      <c r="T13">
+        <v>0.0006796151715247838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10.70742266666667</v>
+      </c>
+      <c r="H14">
+        <v>32.12226800000001</v>
+      </c>
+      <c r="I14">
+        <v>0.2518869683245017</v>
+      </c>
+      <c r="J14">
+        <v>0.2518869683245018</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.495919333333333</v>
+      </c>
+      <c r="N14">
+        <v>22.487758</v>
+      </c>
+      <c r="O14">
+        <v>0.3664693135602911</v>
+      </c>
+      <c r="P14">
+        <v>0.3664693135602912</v>
+      </c>
+      <c r="Q14">
+        <v>80.26197657723823</v>
+      </c>
+      <c r="R14">
+        <v>722.3577891951441</v>
+      </c>
+      <c r="S14">
+        <v>0.09230884437666295</v>
+      </c>
+      <c r="T14">
+        <v>0.09230884437666298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>10.70742266666667</v>
+      </c>
+      <c r="H15">
+        <v>32.12226800000001</v>
+      </c>
+      <c r="I15">
+        <v>0.2518869683245017</v>
+      </c>
+      <c r="J15">
+        <v>0.2518869683245018</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.70442966666666</v>
+      </c>
+      <c r="N15">
+        <v>38.11328899999999</v>
+      </c>
+      <c r="O15">
+        <v>0.6211090877692206</v>
+      </c>
+      <c r="P15">
+        <v>0.6211090877692207</v>
+      </c>
+      <c r="Q15">
+        <v>136.0316981799391</v>
+      </c>
+      <c r="R15">
+        <v>1224.285283619452</v>
+      </c>
+      <c r="S15">
+        <v>0.1564492851169858</v>
+      </c>
+      <c r="T15">
+        <v>0.1564492851169859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>10.70742266666667</v>
+      </c>
+      <c r="H16">
+        <v>32.12226800000001</v>
+      </c>
+      <c r="I16">
+        <v>0.2518869683245017</v>
+      </c>
+      <c r="J16">
+        <v>0.2518869683245018</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.09296133333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.278884</v>
+      </c>
+      <c r="O16">
+        <v>0.004544802912008758</v>
+      </c>
+      <c r="P16">
+        <v>0.004544802912008758</v>
+      </c>
+      <c r="Q16">
+        <v>0.9953762876568891</v>
+      </c>
+      <c r="R16">
+        <v>8.958386588912003</v>
+      </c>
+      <c r="S16">
+        <v>0.001144776627138253</v>
+      </c>
+      <c r="T16">
+        <v>0.001144776627138254</v>
       </c>
     </row>
   </sheetData>
